--- a/excel/CSDL-HMY2.xlsx
+++ b/excel/CSDL-HMY2.xlsx
@@ -548,14 +548,14 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="25.01"/>
   </cols>
